--- a/sql/jobs.xlsx
+++ b/sql/jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>nameAr</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>SuperVisor</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>employment</t>
   </si>
 </sst>
 </file>
@@ -377,54 +389,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
